--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thpo-Mpl.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thpo-Mpl.xlsx
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.001845666666666666</v>
+        <v>0.09370333333333335</v>
       </c>
       <c r="H2">
-        <v>0.005536999999999999</v>
+        <v>0.28111</v>
       </c>
       <c r="I2">
-        <v>0.004923375139489701</v>
+        <v>0.3834601030162819</v>
       </c>
       <c r="J2">
-        <v>0.004923375139489702</v>
+        <v>0.3834601030162819</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3507713333333333</v>
+        <v>0.033008</v>
       </c>
       <c r="N2">
-        <v>1.052314</v>
+        <v>0.099024</v>
       </c>
       <c r="O2">
-        <v>0.7137855158342559</v>
+        <v>0.1900718258980157</v>
       </c>
       <c r="P2">
-        <v>0.7137855158342558</v>
+        <v>0.1900718258980157</v>
       </c>
       <c r="Q2">
-        <v>0.0006474069575555555</v>
+        <v>0.003092959626666668</v>
       </c>
       <c r="R2">
-        <v>0.005826662617999999</v>
+        <v>0.02783663664</v>
       </c>
       <c r="S2">
-        <v>0.003514233863586208</v>
+        <v>0.07288496193934588</v>
       </c>
       <c r="T2">
-        <v>0.003514233863586208</v>
+        <v>0.07288496193934588</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.001845666666666666</v>
+        <v>0.09370333333333335</v>
       </c>
       <c r="H3">
-        <v>0.005536999999999999</v>
+        <v>0.28111</v>
       </c>
       <c r="I3">
-        <v>0.004923375139489701</v>
+        <v>0.3834601030162819</v>
       </c>
       <c r="J3">
-        <v>0.004923375139489702</v>
+        <v>0.3834601030162819</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.421958</v>
       </c>
       <c r="O3">
-        <v>0.2862144841657442</v>
+        <v>0.8099281741019843</v>
       </c>
       <c r="P3">
-        <v>0.2862144841657442</v>
+        <v>0.8099281741019843</v>
       </c>
       <c r="Q3">
-        <v>0.0002595979384444444</v>
+        <v>0.01317962370888889</v>
       </c>
       <c r="R3">
-        <v>0.002336381446</v>
+        <v>0.11861661338</v>
       </c>
       <c r="S3">
-        <v>0.001409141275903494</v>
+        <v>0.310575141076936</v>
       </c>
       <c r="T3">
-        <v>0.001409141275903494</v>
+        <v>0.310575141076936</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,40 +664,40 @@
         <v>0.173041</v>
       </c>
       <c r="I4">
-        <v>0.1538641425884843</v>
+        <v>0.2360439674363787</v>
       </c>
       <c r="J4">
-        <v>0.1538641425884843</v>
+        <v>0.2360439674363787</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.3507713333333333</v>
+        <v>0.033008</v>
       </c>
       <c r="N4">
-        <v>1.052314</v>
+        <v>0.099024</v>
       </c>
       <c r="O4">
-        <v>0.7137855158342559</v>
+        <v>0.1900718258980157</v>
       </c>
       <c r="P4">
-        <v>0.7137855158342558</v>
+        <v>0.1900718258980157</v>
       </c>
       <c r="Q4">
-        <v>0.02023260743044444</v>
+        <v>0.001903912442666667</v>
       </c>
       <c r="R4">
-        <v>0.182093466874</v>
+        <v>0.017135211984</v>
       </c>
       <c r="S4">
-        <v>0.1098259963859167</v>
+        <v>0.04486530788284425</v>
       </c>
       <c r="T4">
-        <v>0.1098259963859167</v>
+        <v>0.04486530788284426</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.173041</v>
       </c>
       <c r="I5">
-        <v>0.1538641425884843</v>
+        <v>0.2360439674363787</v>
       </c>
       <c r="J5">
-        <v>0.1538641425884843</v>
+        <v>0.2360439674363787</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0.421958</v>
       </c>
       <c r="O5">
-        <v>0.2862144841657442</v>
+        <v>0.8099281741019843</v>
       </c>
       <c r="P5">
-        <v>0.2862144841657442</v>
+        <v>0.8099281741019843</v>
       </c>
       <c r="Q5">
         <v>0.008112892697555557</v>
@@ -756,10 +756,10 @@
         <v>0.07301603427800001</v>
       </c>
       <c r="S5">
-        <v>0.04403814620256754</v>
+        <v>0.1911786595535344</v>
       </c>
       <c r="T5">
-        <v>0.04403814620256755</v>
+        <v>0.1911786595535345</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.09297899999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.278937</v>
+      </c>
+      <c r="I6">
+        <v>0.3804959295473394</v>
+      </c>
+      <c r="J6">
+        <v>0.3804959295473395</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.3153523333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.9460569999999999</v>
-      </c>
-      <c r="I6">
-        <v>0.8412124822720259</v>
-      </c>
-      <c r="J6">
-        <v>0.8412124822720261</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>0.3507713333333333</v>
+        <v>0.033008</v>
       </c>
       <c r="N6">
-        <v>1.052314</v>
+        <v>0.099024</v>
       </c>
       <c r="O6">
-        <v>0.7137855158342559</v>
+        <v>0.1900718258980157</v>
       </c>
       <c r="P6">
-        <v>0.7137855158342558</v>
+        <v>0.1900718258980157</v>
       </c>
       <c r="Q6">
-        <v>0.1106165584331111</v>
+        <v>0.003069050832</v>
       </c>
       <c r="R6">
-        <v>0.9955490258979999</v>
+        <v>0.027621457488</v>
       </c>
       <c r="S6">
-        <v>0.6004452855847529</v>
+        <v>0.07232155607582554</v>
       </c>
       <c r="T6">
-        <v>0.6004452855847529</v>
+        <v>0.07232155607582554</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.3153523333333333</v>
+        <v>0.09297899999999999</v>
       </c>
       <c r="H7">
-        <v>0.9460569999999999</v>
+        <v>0.278937</v>
       </c>
       <c r="I7">
-        <v>0.8412124822720259</v>
+        <v>0.3804959295473394</v>
       </c>
       <c r="J7">
-        <v>0.8412124822720261</v>
+        <v>0.3804959295473395</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,22 +868,22 @@
         <v>0.421958</v>
       </c>
       <c r="O7">
-        <v>0.2862144841657442</v>
+        <v>0.8099281741019843</v>
       </c>
       <c r="P7">
-        <v>0.2862144841657442</v>
+        <v>0.8099281741019843</v>
       </c>
       <c r="Q7">
-        <v>0.04435514662288888</v>
+        <v>0.013077744294</v>
       </c>
       <c r="R7">
-        <v>0.399196319606</v>
+        <v>0.117699698646</v>
       </c>
       <c r="S7">
-        <v>0.2407671966872731</v>
+        <v>0.3081743734715138</v>
       </c>
       <c r="T7">
-        <v>0.2407671966872732</v>
+        <v>0.3081743734715139</v>
       </c>
     </row>
   </sheetData>
